--- a/dki.xlsx
+++ b/dki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Documents\CODE\Python\auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Documents\CODE\Python\auto-đang-ky-tin-hvnh\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81A1695-36A7-4FF4-AF21-AEED3374086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024805C-3E08-415F-8E2E-C86F16D47C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Mã HP</t>
   </si>
   <si>
-    <t>BUS17A</t>
-  </si>
-  <si>
     <t>MGT28A</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Mã LHP</t>
   </si>
   <si>
-    <t>211BUS17A03</t>
-  </si>
-  <si>
     <t>211IS42A03</t>
   </si>
   <si>
@@ -78,13 +72,13 @@
     <t>211BUS09A02</t>
   </si>
   <si>
-    <t>211ENG04A04, 211ENG04A14, 211ENG04A16</t>
-  </si>
-  <si>
     <t>211FIN02A17, 211FIN02A19</t>
   </si>
   <si>
-    <t>211SPT03A05</t>
+    <t>211ENG04A22</t>
+  </si>
+  <si>
+    <t>211SPT03A05, 211SPT03A08</t>
   </si>
 </sst>
 </file>
@@ -402,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,12 +430,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -449,10 +443,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,31 +462,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
